--- a/medicine/Pharmacie/Sorafénib/Sorafénib.xlsx
+++ b/medicine/Pharmacie/Sorafénib/Sorafénib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soraf%C3%A9nib</t>
+          <t>Sorafénib</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sorafénib est un anticancéreux (co-développé et commercialisé par Bayer et par Onyx Pharmaceuticals (en) sous le nom de Nexavar). En France, on l'utilise pour le traitement du carcinome hépatocellulaire (un cancer du foie primitif) et du cancer du rein métastatique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soraf%C3%A9nib</t>
+          <t>Sorafénib</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sorafénib inhibe une tyrosine kinase, et plus particulièrement le récepteur au VEGF (en anglais : vascular endothelial growth factor)[2]. Il inhibe également le Raf-1 ainsi que le RET kinase[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sorafénib inhibe une tyrosine kinase, et plus particulièrement le récepteur au VEGF (en anglais : vascular endothelial growth factor). Il inhibe également le Raf-1 ainsi que le RET kinase.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soraf%C3%A9nib</t>
+          <t>Sorafénib</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les cancers rénaux résistant aux autres traitements, le sorafénib prolonge la survie[4],[5].
-Dans les cancers hépatiques avancés, il prolonge la survie de près de trois mois[6].
-Il est testé avec un certain succès dans les cancers de la thyroïde résistant à l'iode radioactif[7], ainsi que dans les formes évoluées des tumeurs desmoïdes[8].
-L'association atezolizumab  bevacizumab est plus efficace et mieux toléré que sorafenib [9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les cancers rénaux résistant aux autres traitements, le sorafénib prolonge la survie,.
+Dans les cancers hépatiques avancés, il prolonge la survie de près de trois mois.
+Il est testé avec un certain succès dans les cancers de la thyroïde résistant à l'iode radioactif, ainsi que dans les formes évoluées des tumeurs desmoïdes.
+L'association atezolizumab  bevacizumab est plus efficace et mieux toléré que sorafenib .
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soraf%C3%A9nib</t>
+          <t>Sorafénib</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Législation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NEXAVAR se présente comme des comprimés dosés à 200 mg commercialisés par Bayer. Ce médicament a obtenu une AMM centralisée de l'agence européenne du médicament [10] le 19 juillet 2006. Il est soumis à une prescription restreinte réservée aux services de cancérologie, hématologie et oncologie médicale. Il est disponible depuis le 31 juillet 2006[11]. La boîte de 112 comprimés est vendue en officine au prix de 2 998,42 euros TTC au 01/01/2020. L'assurance-maladie la rembourse à 100 %[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NEXAVAR se présente comme des comprimés dosés à 200 mg commercialisés par Bayer. Ce médicament a obtenu une AMM centralisée de l'agence européenne du médicament  le 19 juillet 2006. Il est soumis à une prescription restreinte réservée aux services de cancérologie, hématologie et oncologie médicale. Il est disponible depuis le 31 juillet 2006. La boîte de 112 comprimés est vendue en officine au prix de 2 998,42 euros TTC au 01/01/2020. L'assurance-maladie la rembourse à 100 %.
 </t>
         </is>
       </c>
